--- a/data/trans_orig/Q4506_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>41632</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30267</v>
+        <v>29380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56349</v>
+        <v>54235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09522192897315791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06922842967247679</v>
+        <v>0.06719874490162929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1288838044084247</v>
+        <v>0.1240477739039793</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -763,19 +763,19 @@
         <v>82741</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66601</v>
+        <v>67446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100700</v>
+        <v>100462</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2647870072665653</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2131342647808181</v>
+        <v>0.2158403671499617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3222566549087872</v>
+        <v>0.3214946621330148</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -784,19 +784,19 @@
         <v>124374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104192</v>
+        <v>103219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144203</v>
+        <v>143857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.165899076110925</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1389798490428652</v>
+        <v>0.1376818867306067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1923492801351085</v>
+        <v>0.1918877181454862</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>50544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37691</v>
+        <v>38740</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65741</v>
+        <v>66024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1156060643141874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08620864355221151</v>
+        <v>0.08860762496382739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1503647009675227</v>
+        <v>0.1510115987796557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -834,19 +834,19 @@
         <v>65097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51166</v>
+        <v>51702</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82696</v>
+        <v>82947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2083223395559339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1637407506948405</v>
+        <v>0.1654560102809783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.264641633012682</v>
+        <v>0.2654444466711658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>104</v>
@@ -855,19 +855,19 @@
         <v>115641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96526</v>
+        <v>96420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138711</v>
+        <v>138875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1542515324334411</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1287539317063197</v>
+        <v>0.1286123766760566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1850229920483697</v>
+        <v>0.185242905943861</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>77345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62850</v>
+        <v>61964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96547</v>
+        <v>96990</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1769053550163807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1437513228633547</v>
+        <v>0.1417246760302284</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2208249897290009</v>
+        <v>0.2218390158467199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>48</v>
@@ -905,19 +905,19 @@
         <v>55576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41196</v>
+        <v>41349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70959</v>
+        <v>71900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1778523292918726</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1318351891214172</v>
+        <v>0.1323230598977277</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2270809991666719</v>
+        <v>0.2300910446973961</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -926,19 +926,19 @@
         <v>132921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>108823</v>
+        <v>112618</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>156254</v>
+        <v>156779</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1773000674234295</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1451571839098022</v>
+        <v>0.1502187345845052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2084236060694046</v>
+        <v>0.2091236465987295</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>71724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56972</v>
+        <v>55770</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89193</v>
+        <v>87841</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.16404881835319</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1303079505104188</v>
+        <v>0.1275591687049032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.204003890814216</v>
+        <v>0.2009118270559037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -976,19 +976,19 @@
         <v>27293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18914</v>
+        <v>18756</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39876</v>
+        <v>39616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08734241320431649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06052920536664069</v>
+        <v>0.06002298575177768</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1276106026715922</v>
+        <v>0.1267766355726778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -997,19 +997,19 @@
         <v>99017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82131</v>
+        <v>80994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120535</v>
+        <v>118917</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1320764928149374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1095525596500088</v>
+        <v>0.108036276776295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1607783285004651</v>
+        <v>0.1586212210007043</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>195966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>176057</v>
+        <v>173471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218111</v>
+        <v>218210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.448217833343084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4026811929321319</v>
+        <v>0.3967674431008559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4988689070241611</v>
+        <v>0.4990943348859173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1047,19 +1047,19 @@
         <v>81776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64866</v>
+        <v>65034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>97681</v>
+        <v>98326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2616959106813117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2075811761507483</v>
+        <v>0.2081207037308893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3125946942754529</v>
+        <v>0.3146602465206998</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>254</v>
@@ -1068,19 +1068,19 @@
         <v>277741</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>247732</v>
+        <v>250411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>306106</v>
+        <v>305437</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.370472831217267</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.330444018277001</v>
+        <v>0.3340174426226449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4083075878949569</v>
+        <v>0.4074152324459119</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>41570</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29881</v>
+        <v>29014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58405</v>
+        <v>56959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09968471806774723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07165421635243686</v>
+        <v>0.06957445289792327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.140053019449573</v>
+        <v>0.1365859126527826</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -1193,19 +1193,19 @@
         <v>70303</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54660</v>
+        <v>53841</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87090</v>
+        <v>85846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2085910753733384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1621760951315509</v>
+        <v>0.1597464279440487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2583961495560369</v>
+        <v>0.2547059352890391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -1214,19 +1214,19 @@
         <v>111874</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92525</v>
+        <v>89898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136064</v>
+        <v>135069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1483623455834856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.122702990113367</v>
+        <v>0.1192193671854829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1804431482910944</v>
+        <v>0.1791228415893795</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>55583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42068</v>
+        <v>41038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72131</v>
+        <v>72408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.133287159127903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1008776900351484</v>
+        <v>0.09840818263930606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1729678896569678</v>
+        <v>0.1736317261730844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -1264,19 +1264,19 @@
         <v>60898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46501</v>
+        <v>47482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76341</v>
+        <v>76455</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1806840233697055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1379678032526729</v>
+        <v>0.1408801342659433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2265037244903687</v>
+        <v>0.2268437885060476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -1285,19 +1285,19 @@
         <v>116481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>97469</v>
+        <v>96792</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139689</v>
+        <v>139776</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1544720280378288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1292590363117472</v>
+        <v>0.1283623120273004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.185249960133479</v>
+        <v>0.1853658032702629</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>82724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66936</v>
+        <v>67611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101610</v>
+        <v>101541</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1983699451780519</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1605112812498811</v>
+        <v>0.1621292540069119</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2436585812055515</v>
+        <v>0.2434923668201476</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -1335,19 +1335,19 @@
         <v>73955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59793</v>
+        <v>59817</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90936</v>
+        <v>91080</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2194255482487401</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1774070845036897</v>
+        <v>0.1774784394439103</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2698087869157409</v>
+        <v>0.270234427023506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -1356,19 +1356,19 @@
         <v>156679</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>133505</v>
+        <v>134362</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>180489</v>
+        <v>181385</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2077811203266084</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1770486753024689</v>
+        <v>0.1781854888302429</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2393575056258697</v>
+        <v>0.2405457135572176</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>47311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35252</v>
+        <v>35705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61920</v>
+        <v>62658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1134506253110366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0845335695681742</v>
+        <v>0.08562023045834365</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1484827474636455</v>
+        <v>0.1502522272510199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1406,19 +1406,19 @@
         <v>27961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18871</v>
+        <v>18911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41463</v>
+        <v>42753</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08296215530483961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05599089635456961</v>
+        <v>0.05610777254861794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.123021614031645</v>
+        <v>0.1268478392432744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -1427,19 +1427,19 @@
         <v>75272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58929</v>
+        <v>59534</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94464</v>
+        <v>94851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09982326302288277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07814883455926504</v>
+        <v>0.07895215683863771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1252750257263283</v>
+        <v>0.1257881765542109</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>189830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166117</v>
+        <v>168388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210157</v>
+        <v>211471</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4552075523152612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.398345135036165</v>
+        <v>0.4037917241325303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5039521970627199</v>
+        <v>0.5071031118373223</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -1477,19 +1477,19 @@
         <v>103922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82872</v>
+        <v>86261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123140</v>
+        <v>122885</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3083371977033764</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2458819689270398</v>
+        <v>0.2559367274851637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3653576219344627</v>
+        <v>0.3646002713476147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -1498,19 +1498,19 @@
         <v>293751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>265209</v>
+        <v>265922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323131</v>
+        <v>323116</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3895612430291944</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3517102435022649</v>
+        <v>0.3526552592716671</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4285239646291008</v>
+        <v>0.428503681856974</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>55507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41601</v>
+        <v>42257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73855</v>
+        <v>73478</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08859970184151474</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06640177369393695</v>
+        <v>0.06744991528145033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1178852474218017</v>
+        <v>0.1172836818320801</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1623,19 +1623,19 @@
         <v>56860</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44810</v>
+        <v>43544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72682</v>
+        <v>71308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2185845044653004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1722609083130164</v>
+        <v>0.1673956013277034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2794058318426143</v>
+        <v>0.2741274111160654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -1644,19 +1644,19 @@
         <v>112368</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95187</v>
+        <v>90915</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136699</v>
+        <v>135401</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1267362495723648</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1073588476457943</v>
+        <v>0.1025400096727093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1541784271324021</v>
+        <v>0.1527148366457053</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>54729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41335</v>
+        <v>41664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70169</v>
+        <v>69757</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08735656833668301</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06597780255699164</v>
+        <v>0.06650303357713809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1120017818358426</v>
+        <v>0.1113446875122191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1694,19 +1694,19 @@
         <v>29310</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19617</v>
+        <v>19372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40741</v>
+        <v>41185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1126764224063817</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0754129289183203</v>
+        <v>0.07447020720698022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1566197239026859</v>
+        <v>0.158323526116921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -1715,19 +1715,19 @@
         <v>84039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67214</v>
+        <v>66594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>102740</v>
+        <v>103821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09478522002346511</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07580899471051555</v>
+        <v>0.07510987003880502</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1158768210005435</v>
+        <v>0.11709603778587</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>90799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>73931</v>
+        <v>73932</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>110098</v>
+        <v>108488</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1449309280761319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1180063745062178</v>
+        <v>0.1180082574831809</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1757366305965358</v>
+        <v>0.1731661678434111</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -1765,19 +1765,19 @@
         <v>45514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33873</v>
+        <v>33698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58846</v>
+        <v>60507</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1749667818164166</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1302159823695079</v>
+        <v>0.1295415512786181</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2262174566471273</v>
+        <v>0.2326049596810512</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>130</v>
@@ -1786,19 +1786,19 @@
         <v>136313</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>113956</v>
+        <v>115731</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>160478</v>
+        <v>160642</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1537432180260463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1285280509175854</v>
+        <v>0.1305293117596282</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1809987426684241</v>
+        <v>0.1811828081551675</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>84378</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69208</v>
+        <v>68278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104904</v>
+        <v>102476</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1346822954781581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1104678244688004</v>
+        <v>0.1089843042865764</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1674458939501788</v>
+        <v>0.1635692452810308</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1836,19 +1836,19 @@
         <v>20474</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12817</v>
+        <v>13123</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30324</v>
+        <v>31420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07870520141457366</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04927292144682973</v>
+        <v>0.05044820585685403</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1165723296790287</v>
+        <v>0.1207851692061393</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1857,19 +1857,19 @@
         <v>104852</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85164</v>
+        <v>87701</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123585</v>
+        <v>125447</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.118259043863361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09605428530572935</v>
+        <v>0.09891483462709505</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.13938835410859</v>
+        <v>0.141487561687376</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>341084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>314365</v>
+        <v>315343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>366315</v>
+        <v>365281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5444305062675122</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5017821841784973</v>
+        <v>0.503342498598963</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5847038953349782</v>
+        <v>0.5830529514456025</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -1907,19 +1907,19 @@
         <v>107971</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90880</v>
+        <v>92139</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>124489</v>
+        <v>124195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4150670898973275</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3493661102643666</v>
+        <v>0.3542058423004896</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4785676566415726</v>
+        <v>0.4774378235657805</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>420</v>
@@ -1928,19 +1928,19 @@
         <v>449056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>416171</v>
+        <v>418527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476591</v>
+        <v>480890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5064762685147628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4693873103452827</v>
+        <v>0.4720443194990843</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5375331267531372</v>
+        <v>0.5423811426228695</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>78365</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62676</v>
+        <v>62076</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96824</v>
+        <v>98714</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06767051377171078</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05412240983919996</v>
+        <v>0.05360392666714774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08360964831286875</v>
+        <v>0.0852423203753938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -2053,19 +2053,19 @@
         <v>140544</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120109</v>
+        <v>120725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>163135</v>
+        <v>165231</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1833202141825059</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.156666471432083</v>
+        <v>0.1574694572579553</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2127870898259809</v>
+        <v>0.2155208810705775</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>204</v>
@@ -2074,19 +2074,19 @@
         <v>218909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192472</v>
+        <v>192684</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>247317</v>
+        <v>249781</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1137367277793876</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1000009497271845</v>
+        <v>0.1001110596901754</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1284964873778357</v>
+        <v>0.1297764674874319</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>91539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73614</v>
+        <v>74989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112596</v>
+        <v>113066</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07904602465245819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06356772901299318</v>
+        <v>0.06475528675015843</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09722940872490393</v>
+        <v>0.09763517593062922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>115</v>
@@ -2124,19 +2124,19 @@
         <v>122432</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104108</v>
+        <v>103668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145142</v>
+        <v>146193</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1596956689053882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1357945873917028</v>
+        <v>0.1352204779174812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1893180658888708</v>
+        <v>0.190689185342971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>199</v>
@@ -2145,19 +2145,19 @@
         <v>213971</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>185882</v>
+        <v>186694</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>241937</v>
+        <v>246070</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1111708270393366</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09657717120434008</v>
+        <v>0.09699893287866708</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1257013405787138</v>
+        <v>0.1278482852632926</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>168514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>144238</v>
+        <v>144628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>192472</v>
+        <v>193865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1455157505820643</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1245534275694478</v>
+        <v>0.1248903051618706</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.166204307925069</v>
+        <v>0.1674070408837784</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -2195,19 +2195,19 @@
         <v>129760</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>109505</v>
+        <v>111757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>151884</v>
+        <v>152792</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.169254006618842</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1428344912088527</v>
+        <v>0.1457724719339027</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1981124448495934</v>
+        <v>0.1992960956999078</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>277</v>
@@ -2216,19 +2216,19 @@
         <v>298273</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>269028</v>
+        <v>267989</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>336524</v>
+        <v>332627</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1549713010839241</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1397766105974056</v>
+        <v>0.1392365692426931</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1748450053678686</v>
+        <v>0.1728201002635748</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>123637</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104525</v>
+        <v>102854</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145730</v>
+        <v>146387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1067635200317329</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09025999977785672</v>
+        <v>0.08881671020080344</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1258416096132539</v>
+        <v>0.1264091901874731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2266,19 +2266,19 @@
         <v>79191</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63198</v>
+        <v>64204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96528</v>
+        <v>97542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1032932613421913</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08243262898193332</v>
+        <v>0.08374523039466057</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1259083005824492</v>
+        <v>0.127230729579424</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>191</v>
@@ -2287,19 +2287,19 @@
         <v>202827</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>176345</v>
+        <v>176964</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230401</v>
+        <v>233980</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1053812278261622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09162200943954144</v>
+        <v>0.09194343302220938</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1197074093273823</v>
+        <v>0.1215668233088256</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>695989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>658256</v>
+        <v>659805</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730033</v>
+        <v>733560</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6010041909620338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5684208575798745</v>
+        <v>0.5697580907972752</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.63040191948654</v>
+        <v>0.6334474133863025</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>269</v>
@@ -2337,19 +2337,19 @@
         <v>294731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>265696</v>
+        <v>265866</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>321089</v>
+        <v>322682</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3844368489510726</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3465645918981686</v>
+        <v>0.346786031963141</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4188172750772396</v>
+        <v>0.4208950722657365</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>922</v>
@@ -2358,19 +2358,19 @@
         <v>990720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>944811</v>
+        <v>945937</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1033322</v>
+        <v>1036383</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5147399162711894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.490887324841743</v>
+        <v>0.4914719436819789</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5368738772569424</v>
+        <v>0.538464675437886</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>24976</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16846</v>
+        <v>16644</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37671</v>
+        <v>35113</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04891467011141155</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03299217098552801</v>
+        <v>0.03259697821522012</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07377859997749109</v>
+        <v>0.0687687123458436</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>147</v>
@@ -2483,19 +2483,19 @@
         <v>159524</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>136685</v>
+        <v>137158</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>183046</v>
+        <v>184328</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2101082835789068</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.180026985848866</v>
+        <v>0.1806501674583802</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2410883300332809</v>
+        <v>0.2427774249320656</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>172</v>
@@ -2504,19 +2504,19 @@
         <v>184500</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>159688</v>
+        <v>161606</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>212425</v>
+        <v>212564</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.145293306237824</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1257541968148448</v>
+        <v>0.1272647385685448</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1672841176357628</v>
+        <v>0.1673939426843101</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>42582</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31087</v>
+        <v>31332</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56453</v>
+        <v>56154</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08339639232963816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06088358741856374</v>
+        <v>0.0613636556863691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.110562804641786</v>
+        <v>0.109977678871007</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>96</v>
@@ -2554,19 +2554,19 @@
         <v>103213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85533</v>
+        <v>84986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124409</v>
+        <v>124764</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1359412886731326</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.112655632525217</v>
+        <v>0.111935243840442</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1638585412494164</v>
+        <v>0.1643264982730908</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>138</v>
@@ -2575,19 +2575,19 @@
         <v>145795</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>124961</v>
+        <v>124876</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>168058</v>
+        <v>171584</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1148133035586361</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09840670795560053</v>
+        <v>0.09833986404314407</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1323452791716576</v>
+        <v>0.1351221125701422</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>66355</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53361</v>
+        <v>52778</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82124</v>
+        <v>83162</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1299558449500516</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.104506646178432</v>
+        <v>0.1033646230000881</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1608388822556421</v>
+        <v>0.1628717079167297</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -2625,19 +2625,19 @@
         <v>120140</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>98958</v>
+        <v>99933</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140499</v>
+        <v>142668</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1582353299190158</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1303375284303755</v>
+        <v>0.1316208531179513</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1850508559263644</v>
+        <v>0.1879066749839955</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -2646,19 +2646,19 @@
         <v>186495</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>158634</v>
+        <v>160815</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>209915</v>
+        <v>212982</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1468643200008684</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1249238495512777</v>
+        <v>0.1266418335672701</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1653081509577828</v>
+        <v>0.1677234771614825</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>59264</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44615</v>
+        <v>45840</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>75147</v>
+        <v>74444</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1160684072422622</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08737911617849398</v>
+        <v>0.08977814532084402</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1471746129276273</v>
+        <v>0.1457982670753622</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -2696,19 +2696,19 @@
         <v>46402</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34984</v>
+        <v>33276</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>62626</v>
+        <v>62867</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0611164111283844</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0460775220356979</v>
+        <v>0.04382755056807814</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08248451311595835</v>
+        <v>0.08280179697723049</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>100</v>
@@ -2717,19 +2717,19 @@
         <v>105667</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>87665</v>
+        <v>87346</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>129870</v>
+        <v>128091</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08321227650636649</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06903612973471827</v>
+        <v>0.06878506301532948</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1022722483376134</v>
+        <v>0.1008712196091854</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>317420</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>295045</v>
+        <v>295197</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>339345</v>
+        <v>339090</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6216646853666365</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5778449369676113</v>
+        <v>0.5781410898546291</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.664605129580393</v>
+        <v>0.6641059501502492</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>304</v>
@@ -2767,19 +2767,19 @@
         <v>329968</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>299042</v>
+        <v>300007</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>358561</v>
+        <v>357007</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4345986867005605</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3938659742850728</v>
+        <v>0.3951371625446968</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4722593469434969</v>
+        <v>0.4702114899767519</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>603</v>
@@ -2788,19 +2788,19 @@
         <v>647387</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>611010</v>
+        <v>609234</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>681909</v>
+        <v>681773</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5098167936963049</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4811697700342856</v>
+        <v>0.4797711615070621</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.537002837571287</v>
+        <v>0.5368955450488012</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>25396</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16753</v>
+        <v>17421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36878</v>
+        <v>37000</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09549448877143141</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06299248073918379</v>
+        <v>0.06550705894594998</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1386682724062014</v>
+        <v>0.139126945210413</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>183</v>
@@ -2913,19 +2913,19 @@
         <v>196709</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169040</v>
+        <v>173914</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>222112</v>
+        <v>224796</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1778428873672275</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1528280627333236</v>
+        <v>0.1572339518664326</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2008099072583789</v>
+        <v>0.2032367369523484</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>207</v>
@@ -2934,19 +2934,19 @@
         <v>222105</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>193696</v>
+        <v>195479</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>249938</v>
+        <v>251782</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1618809971319721</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1411750668897607</v>
+        <v>0.1424743191216646</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1821668660139528</v>
+        <v>0.1835109555779545</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>23234</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15465</v>
+        <v>15086</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35602</v>
+        <v>33765</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08736417935586557</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05815041426946342</v>
+        <v>0.05672474452027254</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1338687382863252</v>
+        <v>0.1269614636878836</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>133</v>
@@ -2984,19 +2984,19 @@
         <v>139002</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>118902</v>
+        <v>118267</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>163072</v>
+        <v>162146</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1256702129775054</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1074986255712203</v>
+        <v>0.1069246244511413</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1474320030792868</v>
+        <v>0.1465948054905848</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>155</v>
@@ -3005,19 +3005,19 @@
         <v>162236</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>139728</v>
+        <v>138800</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>188657</v>
+        <v>185939</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.118245214866518</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1018406122128266</v>
+        <v>0.1011640197828886</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1375023966595917</v>
+        <v>0.1355213950369751</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>29792</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21375</v>
+        <v>21078</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41790</v>
+        <v>41182</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1120234746007054</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08037457629480793</v>
+        <v>0.07925690763883583</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.157139288932244</v>
+        <v>0.1548499260234965</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>222</v>
@@ -3055,19 +3055,19 @@
         <v>229723</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>204462</v>
+        <v>204542</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>259328</v>
+        <v>257232</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2076907533482875</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1848527898805405</v>
+        <v>0.1849248504328118</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.234456112136437</v>
+        <v>0.232561242030399</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>253</v>
@@ -3076,19 +3076,19 @@
         <v>259515</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>227169</v>
+        <v>228874</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>285792</v>
+        <v>290283</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1891472160298527</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.165571622182862</v>
+        <v>0.166814636580347</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.208298801332863</v>
+        <v>0.2115727186603909</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>53205</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>41380</v>
+        <v>41978</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66629</v>
+        <v>68407</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2000590178351953</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1555949408006979</v>
+        <v>0.1578453794099045</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2505365971590646</v>
+        <v>0.2572210215368768</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>101</v>
@@ -3126,19 +3126,19 @@
         <v>106213</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>87170</v>
+        <v>88034</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>125889</v>
+        <v>128033</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0960259406855867</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07880945644083175</v>
+        <v>0.07959094481931459</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1138150718211287</v>
+        <v>0.1157535278901143</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>155</v>
@@ -3147,19 +3147,19 @@
         <v>159417</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>135818</v>
+        <v>134404</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>184945</v>
+        <v>183396</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1161910511991345</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09899104000745003</v>
+        <v>0.09796032653978694</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1347967455320857</v>
+        <v>0.1336681046503947</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>134318</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>117959</v>
+        <v>117543</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>151435</v>
+        <v>150497</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5050588394368023</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4435450215181876</v>
+        <v>0.4419814265777874</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5694229650627014</v>
+        <v>0.565895564201675</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>402</v>
@@ -3197,19 +3197,19 @@
         <v>434436</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>404240</v>
+        <v>403736</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>469634</v>
+        <v>470706</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.392770205621393</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3654704899690344</v>
+        <v>0.3650145838947046</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4245927452811403</v>
+        <v>0.4255611492809994</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>535</v>
@@ -3218,19 +3218,19 @@
         <v>568754</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>533299</v>
+        <v>534349</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>607517</v>
+        <v>608526</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4145355207725227</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3886943818509812</v>
+        <v>0.3894595867723575</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4427881373061426</v>
+        <v>0.4435233310923802</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>267447</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>233633</v>
+        <v>233819</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>303786</v>
+        <v>301424</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07830829164079357</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06840769237981235</v>
+        <v>0.06846193915635675</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08894817930688424</v>
+        <v>0.08825658666117168</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>652</v>
@@ -3343,19 +3343,19 @@
         <v>706682</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>657344</v>
+        <v>660906</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>753138</v>
+        <v>758276</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1995352896102801</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1856044039658717</v>
+        <v>0.1866103424959185</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2126524061538798</v>
+        <v>0.2141033150412436</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>898</v>
@@ -3364,19 +3364,19 @@
         <v>974129</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>913534</v>
+        <v>915939</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1032535</v>
+        <v>1032615</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1400224361513813</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1313124437048552</v>
+        <v>0.1316582323683174</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1484177711057411</v>
+        <v>0.1484292505567087</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>318211</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>285212</v>
+        <v>286664</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>355558</v>
+        <v>356781</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0931718053579214</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0835099312630443</v>
+        <v>0.08393502747382478</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1041072039614616</v>
+        <v>0.1044651413787373</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>485</v>
@@ -3414,19 +3414,19 @@
         <v>519952</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>475708</v>
+        <v>478802</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>566023</v>
+        <v>563815</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1468110729855546</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1343186426789511</v>
+        <v>0.1351921407252628</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1598196821796363</v>
+        <v>0.1591960859376295</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>780</v>
@@ -3435,19 +3435,19 @@
         <v>838162</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>780218</v>
+        <v>782830</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>896795</v>
+        <v>894750</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1204784414147432</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.112149420897003</v>
+        <v>0.1125249461548713</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.128906419320026</v>
+        <v>0.1286123778151323</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>515528</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>473502</v>
+        <v>472804</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>557673</v>
+        <v>563063</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1509462007048073</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1386410221905303</v>
+        <v>0.1384367203734118</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1632862725721144</v>
+        <v>0.1648644544948963</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>615</v>
@@ -3485,19 +3485,19 @@
         <v>654667</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>604801</v>
+        <v>608671</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>699158</v>
+        <v>702414</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1848487537888518</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1707688616054533</v>
+        <v>0.1718613907479934</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1974109171973421</v>
+        <v>0.1983303686955148</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1099</v>
@@ -3506,19 +3506,19 @@
         <v>1170195</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1099469</v>
+        <v>1105750</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1236972</v>
+        <v>1233960</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1682052856887746</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1580389284400075</v>
+        <v>0.1589417534273469</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1778038404116476</v>
+        <v>0.177370924117087</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>439518</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>399573</v>
+        <v>400880</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>479771</v>
+        <v>483393</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1286906401123267</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1169945289776663</v>
+        <v>0.1173774408474213</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1404764383671789</v>
+        <v>0.1415370635106305</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>288</v>
@@ -3556,19 +3556,19 @@
         <v>307534</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>277949</v>
+        <v>275607</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>344906</v>
+        <v>342525</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08683372408531631</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0784802617897177</v>
+        <v>0.0778189827137712</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09738593570672389</v>
+        <v>0.09671384131877767</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>710</v>
@@ -3577,19 +3577,19 @@
         <v>747052</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>697453</v>
+        <v>695216</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>799612</v>
+        <v>797433</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1073821543152219</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1002527251300681</v>
+        <v>0.09993114134906608</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.114937149021504</v>
+        <v>0.1146240401228664</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>1874606</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1817368</v>
+        <v>1812943</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1934329</v>
+        <v>1933092</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5488830621841509</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.532123842552137</v>
+        <v>0.530828149078764</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.566370103391433</v>
+        <v>0.5660078191750623</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1243</v>
@@ -3627,19 +3627,19 @@
         <v>1352804</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1293316</v>
+        <v>1294792</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1409651</v>
+        <v>1412196</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3819711595299973</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3651746529479414</v>
+        <v>0.3655913065218901</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3980224557149728</v>
+        <v>0.3987408779394166</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2994</v>
@@ -3648,19 +3648,19 @@
         <v>3227409</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3142508</v>
+        <v>3146743</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3327159</v>
+        <v>3311999</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4639116824298791</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4517078787630118</v>
+        <v>0.4523165915790221</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4782498241722373</v>
+        <v>0.4760706304864267</v>
       </c>
     </row>
     <row r="45">
@@ -3994,19 +3994,19 @@
         <v>71345</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54924</v>
+        <v>55723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87626</v>
+        <v>87555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1666068661231596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1282593775080477</v>
+        <v>0.1301254651004084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2046254927616046</v>
+        <v>0.2044608229398483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -4015,19 +4015,19 @@
         <v>109898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93947</v>
+        <v>92851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129474</v>
+        <v>128933</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3166589978327744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2706976341079463</v>
+        <v>0.2675404584124802</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3730660544299039</v>
+        <v>0.371505885521962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -4036,19 +4036,19 @@
         <v>181243</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159112</v>
+        <v>158758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208095</v>
+        <v>205320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2337778413595114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2052319216907067</v>
+        <v>0.2047756602608228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2684125797127848</v>
+        <v>0.2648339267654427</v>
       </c>
     </row>
     <row r="5">
@@ -4065,19 +4065,19 @@
         <v>111434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93705</v>
+        <v>93432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130841</v>
+        <v>131136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2602235114699768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.218822150224868</v>
+        <v>0.2181833876950542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3055425188288109</v>
+        <v>0.3062319231385704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -4086,19 +4086,19 @@
         <v>110946</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93703</v>
+        <v>91775</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131578</v>
+        <v>127722</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3196789882588011</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2699936559824991</v>
+        <v>0.264439228614013</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.379126687601462</v>
+        <v>0.36801615319493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>212</v>
@@ -4107,19 +4107,19 @@
         <v>222380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197783</v>
+        <v>197018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248432</v>
+        <v>246839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2868388105233504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2551118068607321</v>
+        <v>0.2541251505904791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3204419033512657</v>
+        <v>0.3183875153188762</v>
       </c>
     </row>
     <row r="6">
@@ -4136,19 +4136,19 @@
         <v>76662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60762</v>
+        <v>60666</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93942</v>
+        <v>93862</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1790221164481202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1418931463126524</v>
+        <v>0.1416689175842501</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2193743285933433</v>
+        <v>0.2191892435062432</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -4157,19 +4157,19 @@
         <v>62307</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48680</v>
+        <v>48772</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76521</v>
+        <v>77880</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.17952962201861</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1402666121014398</v>
+        <v>0.1405320022854516</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2204868217350227</v>
+        <v>0.224402505753498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -4178,19 +4178,19 @@
         <v>138968</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118078</v>
+        <v>118975</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>161359</v>
+        <v>163343</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1792493017851046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1523031079271799</v>
+        <v>0.1534608783913324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2081300146105863</v>
+        <v>0.2106893917343627</v>
       </c>
     </row>
     <row r="7">
@@ -4207,19 +4207,19 @@
         <v>46463</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35612</v>
+        <v>34174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61667</v>
+        <v>60068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1085002154730899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08316089264227328</v>
+        <v>0.07980303896677697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.144006920563811</v>
+        <v>0.1402712994653406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -4228,19 +4228,19 @@
         <v>25508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17096</v>
+        <v>16566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36959</v>
+        <v>36455</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0734995760448881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04926111515303735</v>
+        <v>0.04773179869004411</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1064931447456231</v>
+        <v>0.1050395662194684</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -4249,19 +4249,19 @@
         <v>71971</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56437</v>
+        <v>57242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89007</v>
+        <v>89356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09283214693249767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07279603771915019</v>
+        <v>0.07383431222136387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1148061574402574</v>
+        <v>0.1152567974659966</v>
       </c>
     </row>
     <row r="8">
@@ -4278,19 +4278,19 @@
         <v>122321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104333</v>
+        <v>101807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142133</v>
+        <v>140776</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2856472904856535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2436410037915083</v>
+        <v>0.2377413291431251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.331911223104108</v>
+        <v>0.3287426962761446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -4299,19 +4299,19 @@
         <v>38396</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27215</v>
+        <v>27474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51546</v>
+        <v>53014</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1106328158449263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07841782773623605</v>
+        <v>0.0791626188060376</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1485227964419806</v>
+        <v>0.1527540186364887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>147</v>
@@ -4320,19 +4320,19 @@
         <v>160717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136662</v>
+        <v>137939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>182291</v>
+        <v>186547</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2073018993995359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.176274590176494</v>
+        <v>0.1779218793923446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2351287087921975</v>
+        <v>0.2406182611245562</v>
       </c>
     </row>
     <row r="9">
@@ -4424,19 +4424,19 @@
         <v>54811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41549</v>
+        <v>42042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71360</v>
+        <v>70646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1464978025729924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1110495545169576</v>
+        <v>0.1123682620689236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1907295162916009</v>
+        <v>0.1888211168968202</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -4445,19 +4445,19 @@
         <v>100134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82885</v>
+        <v>83696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118166</v>
+        <v>119777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2697857341628948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2233126148938399</v>
+        <v>0.2254990379051456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3183679637784376</v>
+        <v>0.3227077081289358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -4466,19 +4466,19 @@
         <v>154945</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134125</v>
+        <v>132272</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176938</v>
+        <v>179577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2078949765106571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1799602488172102</v>
+        <v>0.1774733972036992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2374032744603906</v>
+        <v>0.2409443879217291</v>
       </c>
     </row>
     <row r="11">
@@ -4495,19 +4495,19 @@
         <v>70036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56268</v>
+        <v>54262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87489</v>
+        <v>85906</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1871903621767057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.150391456482683</v>
+        <v>0.1450280074790275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.233837658867023</v>
+        <v>0.229605338865244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -4516,19 +4516,19 @@
         <v>108076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92392</v>
+        <v>90309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126132</v>
+        <v>126359</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2911834223007745</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2489272731607978</v>
+        <v>0.2433147632575682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3398308835824499</v>
+        <v>0.3404433261206353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>169</v>
@@ -4537,19 +4537,19 @@
         <v>178112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>156500</v>
+        <v>156012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>201629</v>
+        <v>204855</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2389787239280064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2099810479288072</v>
+        <v>0.2093256142565355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2705324157392351</v>
+        <v>0.2748604392227535</v>
       </c>
     </row>
     <row r="12">
@@ -4566,19 +4566,19 @@
         <v>66448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51231</v>
+        <v>52095</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82053</v>
+        <v>82075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1775995075587526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1369289590352445</v>
+        <v>0.1392381504132506</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2193067321427194</v>
+        <v>0.2193664567343297</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -4587,19 +4587,19 @@
         <v>66433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53463</v>
+        <v>53824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85204</v>
+        <v>82897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1789860600377032</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1440417278750282</v>
+        <v>0.1450155119842177</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2295607614142783</v>
+        <v>0.223344116772398</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -4608,19 +4608,19 @@
         <v>132881</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111946</v>
+        <v>113117</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>154984</v>
+        <v>155902</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1782900082641015</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1502010095303721</v>
+        <v>0.151773038268593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2079470673266855</v>
+        <v>0.209178035258044</v>
       </c>
     </row>
     <row r="13">
@@ -4637,19 +4637,19 @@
         <v>50417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38918</v>
+        <v>37597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66891</v>
+        <v>65685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1347519354415422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1040187665568149</v>
+        <v>0.1004880038267175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1787841298498899</v>
+        <v>0.1755597434519348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4658,19 +4658,19 @@
         <v>28013</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19215</v>
+        <v>18181</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40135</v>
+        <v>38452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07547427340253003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05177001758506694</v>
+        <v>0.04898450056737282</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1081328599059644</v>
+        <v>0.1036005113511009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -4679,19 +4679,19 @@
         <v>78430</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62739</v>
+        <v>63335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>98442</v>
+        <v>97892</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1052317635975252</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08417909493583012</v>
+        <v>0.08497812214243615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1320829445386091</v>
+        <v>0.1313449249519569</v>
       </c>
     </row>
     <row r="14">
@@ -4708,19 +4708,19 @@
         <v>132433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>114388</v>
+        <v>115927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151168</v>
+        <v>154563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.353960392250007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3057317639026248</v>
+        <v>0.3098446117565584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4040355362803667</v>
+        <v>0.4131111421397539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -4729,19 +4729,19 @@
         <v>68505</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52733</v>
+        <v>53743</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85841</v>
+        <v>85121</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1845705100960974</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1420770209107523</v>
+        <v>0.1447960051160715</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2312757479436506</v>
+        <v>0.2293371983596242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -4750,19 +4750,19 @@
         <v>200938</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175486</v>
+        <v>176868</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>225524</v>
+        <v>226162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2696045276997098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2354551150559048</v>
+        <v>0.2373090952424586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3025930583409429</v>
+        <v>0.3034489769456358</v>
       </c>
     </row>
     <row r="15">
@@ -4854,19 +4854,19 @@
         <v>50489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37308</v>
+        <v>37544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64798</v>
+        <v>66197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0972810147660504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07188550199908973</v>
+        <v>0.07234045868455373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1248518183540385</v>
+        <v>0.1275488372446143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -4875,19 +4875,19 @@
         <v>30145</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20554</v>
+        <v>20299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42012</v>
+        <v>42421</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1814601081307078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1237246277940814</v>
+        <v>0.122194854444914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2528946270419459</v>
+        <v>0.255359557682968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -4896,19 +4896,19 @@
         <v>80633</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62816</v>
+        <v>62750</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98900</v>
+        <v>97711</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1176921456229971</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09168558897789368</v>
+        <v>0.09158960121769544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1443541165086069</v>
+        <v>0.1426187352161437</v>
       </c>
     </row>
     <row r="17">
@@ -4925,19 +4925,19 @@
         <v>105506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88269</v>
+        <v>87565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126108</v>
+        <v>123697</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2032880461112366</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1700761080678054</v>
+        <v>0.1687194168914066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2429844724000242</v>
+        <v>0.2383382755933801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -4946,19 +4946,19 @@
         <v>43958</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32765</v>
+        <v>33941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56154</v>
+        <v>56079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2646133926814727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1972324061537881</v>
+        <v>0.2043138339087808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3380238756768305</v>
+        <v>0.3375781505435057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>144</v>
@@ -4967,19 +4967,19 @@
         <v>149464</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>128758</v>
+        <v>127182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171977</v>
+        <v>172599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2181577676021814</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1879353649066337</v>
+        <v>0.185634644129671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2510171878961059</v>
+        <v>0.2519254788327359</v>
       </c>
     </row>
     <row r="18">
@@ -4996,19 +4996,19 @@
         <v>83220</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67399</v>
+        <v>66972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>100872</v>
+        <v>100302</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1603476964465503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.129864118565383</v>
+        <v>0.1290420235918018</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1943596259168796</v>
+        <v>0.1932607920679545</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -5017,19 +5017,19 @@
         <v>22735</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14481</v>
+        <v>15033</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33149</v>
+        <v>34229</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1368587151975401</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08717153538137323</v>
+        <v>0.09049066046100813</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1995423749131129</v>
+        <v>0.206043376042324</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>102</v>
@@ -5038,19 +5038,19 @@
         <v>105955</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>85590</v>
+        <v>89363</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>124483</v>
+        <v>128227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.154652260076227</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1249263855340737</v>
+        <v>0.1304337747819016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1816956292200976</v>
+        <v>0.1871597582688568</v>
       </c>
     </row>
     <row r="19">
@@ -5067,19 +5067,19 @@
         <v>57175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44368</v>
+        <v>43737</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73056</v>
+        <v>73269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1101652839809818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08548807305734894</v>
+        <v>0.0842730758340037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1407646160528072</v>
+        <v>0.1411735106541644</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5088,19 +5088,19 @@
         <v>13269</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6928</v>
+        <v>7221</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23241</v>
+        <v>22386</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07987414237247147</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04170580792640012</v>
+        <v>0.04346614264962408</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.139904807656466</v>
+        <v>0.1347547504155713</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>67</v>
@@ -5109,19 +5109,19 @@
         <v>70444</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53402</v>
+        <v>55239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86800</v>
+        <v>87145</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1028205095189989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07794587852922945</v>
+        <v>0.08062734959254773</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1266936876511166</v>
+        <v>0.1271960890174258</v>
       </c>
     </row>
     <row r="20">
@@ -5138,19 +5138,19 @@
         <v>222607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199674</v>
+        <v>199908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244962</v>
+        <v>246608</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4289179586951809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3847306612145564</v>
+        <v>0.3851811860969124</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4719915775175776</v>
+        <v>0.4751621496755665</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -5159,19 +5159,19 @@
         <v>56016</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43142</v>
+        <v>43407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68940</v>
+        <v>68834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.337193641617808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2596963688241085</v>
+        <v>0.2612955262899686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4149958528203745</v>
+        <v>0.4143526707642253</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -5180,19 +5180,19 @@
         <v>278623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253132</v>
+        <v>253422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303737</v>
+        <v>304290</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4066773171795955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3694705729350966</v>
+        <v>0.3698940338388486</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.443334219926112</v>
+        <v>0.4441412641368229</v>
       </c>
     </row>
     <row r="21">
@@ -5284,19 +5284,19 @@
         <v>85960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69285</v>
+        <v>68799</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105389</v>
+        <v>105997</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0752458431223223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06064894180309605</v>
+        <v>0.06022385023933647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09225298955336586</v>
+        <v>0.09278565187509397</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -5305,19 +5305,19 @@
         <v>174372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>153587</v>
+        <v>153573</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197142</v>
+        <v>200351</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2125714786306433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1872333156555427</v>
+        <v>0.1872165439253954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2403296676323216</v>
+        <v>0.2442426150999094</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>247</v>
@@ -5326,19 +5326,19 @@
         <v>260331</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>233127</v>
+        <v>228774</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>290756</v>
+        <v>291516</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1326406203827442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1187796497511238</v>
+        <v>0.1165621118591048</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1481422794034705</v>
+        <v>0.1485291111808973</v>
       </c>
     </row>
     <row r="23">
@@ -5355,19 +5355,19 @@
         <v>204225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>176113</v>
+        <v>178987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228647</v>
+        <v>230316</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1787707170358291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1541623269240469</v>
+        <v>0.1566777875884817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2001488931766888</v>
+        <v>0.2016100319898338</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>210</v>
@@ -5376,19 +5376,19 @@
         <v>216791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>190749</v>
+        <v>191528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240669</v>
+        <v>242120</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2642835425601155</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2325361262982025</v>
+        <v>0.2334857432303181</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2933930811091284</v>
+        <v>0.2951608030756546</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>403</v>
@@ -5397,19 +5397,19 @@
         <v>421016</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>386270</v>
+        <v>382921</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>455632</v>
+        <v>457299</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2145105084863362</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1968072891232163</v>
+        <v>0.19510078415931</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2321474576648953</v>
+        <v>0.2329968893025697</v>
       </c>
     </row>
     <row r="24">
@@ -5426,19 +5426,19 @@
         <v>184605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>161963</v>
+        <v>161969</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>215024</v>
+        <v>211339</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.161595905559376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.14177615841304</v>
+        <v>0.1417814558307041</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1882239214233723</v>
+        <v>0.1849980900525364</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>146</v>
@@ -5447,19 +5447,19 @@
         <v>148372</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126887</v>
+        <v>127295</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171698</v>
+        <v>170433</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1808753733574681</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1546847604171093</v>
+        <v>0.1551815986391569</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.209311883923911</v>
+        <v>0.2077700657102489</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>324</v>
@@ -5468,19 +5468,19 @@
         <v>332976</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>299139</v>
+        <v>299381</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>366846</v>
+        <v>369518</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1696536928463238</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1524134519390311</v>
+        <v>0.1525364540097146</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.186910422535464</v>
+        <v>0.188272070824988</v>
       </c>
     </row>
     <row r="25">
@@ -5497,19 +5497,19 @@
         <v>152605</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129217</v>
+        <v>130129</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176678</v>
+        <v>179293</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1335848049441997</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.113111395329257</v>
+        <v>0.1139100696287203</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1546569647465842</v>
+        <v>0.1569462865631717</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>79</v>
@@ -5518,19 +5518,19 @@
         <v>79193</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64800</v>
+        <v>63284</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98084</v>
+        <v>98293</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09654185913324187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07899613845951153</v>
+        <v>0.07714722692449601</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1195714439596298</v>
+        <v>0.1198265418140068</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>222</v>
@@ -5539,19 +5539,19 @@
         <v>231798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>203649</v>
+        <v>201978</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>261642</v>
+        <v>261714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1181028330893454</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1037605840402824</v>
+        <v>0.1029089339863182</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1333082573747311</v>
+        <v>0.1333451991387172</v>
       </c>
     </row>
     <row r="26">
@@ -5568,19 +5568,19 @@
         <v>514991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>480559</v>
+        <v>481690</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>548790</v>
+        <v>549785</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4508027293382729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4206623756634368</v>
+        <v>0.4216527167547757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4803897281519913</v>
+        <v>0.4812600806319176</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>193</v>
@@ -5589,19 +5589,19 @@
         <v>201570</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176703</v>
+        <v>177969</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>224337</v>
+        <v>227200</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2457277463185312</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2154139084280411</v>
+        <v>0.2169567625695055</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2734830315452291</v>
+        <v>0.2769724947511361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>694</v>
@@ -5610,19 +5610,19 @@
         <v>716561</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>672088</v>
+        <v>672948</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>764084</v>
+        <v>758758</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3650923451952504</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3424330875776127</v>
+        <v>0.342871582034406</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3893059287726705</v>
+        <v>0.3865920402837661</v>
       </c>
     </row>
     <row r="27">
@@ -5714,19 +5714,19 @@
         <v>39753</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28993</v>
+        <v>28945</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53403</v>
+        <v>53683</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0641499082219177</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04678701763548951</v>
+        <v>0.04670900556738481</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08617751196574748</v>
+        <v>0.08662878012371859</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>119</v>
@@ -5735,19 +5735,19 @@
         <v>128717</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106897</v>
+        <v>107129</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>151595</v>
+        <v>149856</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1745885319326316</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1449918897723727</v>
+        <v>0.1453072288952488</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2056193365054466</v>
+        <v>0.2032613072270722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>158</v>
@@ -5756,19 +5756,19 @@
         <v>168470</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>143387</v>
+        <v>145149</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>192774</v>
+        <v>195511</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1241536978309819</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.105668806952888</v>
+        <v>0.1069671902635481</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.142064315485089</v>
+        <v>0.1440813991624008</v>
       </c>
     </row>
     <row r="29">
@@ -5785,19 +5785,19 @@
         <v>83187</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68317</v>
+        <v>66867</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101474</v>
+        <v>100604</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1342409944069481</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1102436153516927</v>
+        <v>0.1079036810987542</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1637510589588649</v>
+        <v>0.1623459637617784</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>147</v>
@@ -5806,19 +5806,19 @@
         <v>153838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>132780</v>
+        <v>134179</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>175380</v>
+        <v>177105</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2086618605200826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1800987982477304</v>
+        <v>0.181996732266429</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2378804721037646</v>
+        <v>0.2402207718930024</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>224</v>
@@ -5827,19 +5827,19 @@
         <v>237025</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>208656</v>
+        <v>210221</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>265373</v>
+        <v>266336</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1746755257578096</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1537685554246177</v>
+        <v>0.1549221954234494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1955659147861757</v>
+        <v>0.1962755486384244</v>
       </c>
     </row>
     <row r="30">
@@ -5856,19 +5856,19 @@
         <v>69198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55127</v>
+        <v>55694</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>86903</v>
+        <v>85261</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1116656627008964</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.088959690859565</v>
+        <v>0.08987419958941165</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1402365446691968</v>
+        <v>0.1375873579399722</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>135</v>
@@ -5877,19 +5877,19 @@
         <v>140102</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>116742</v>
+        <v>120321</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>161978</v>
+        <v>163159</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1900313126673329</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.158345296201065</v>
+        <v>0.1632006755925848</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2197029352005958</v>
+        <v>0.2213041540106468</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>202</v>
@@ -5898,19 +5898,19 @@
         <v>209300</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>180516</v>
+        <v>183608</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>234980</v>
+        <v>236889</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1542434838939674</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1330308097541791</v>
+        <v>0.1353094483437179</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1731678139398439</v>
+        <v>0.1745748791765799</v>
       </c>
     </row>
     <row r="31">
@@ -5927,19 +5927,19 @@
         <v>56132</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41705</v>
+        <v>43431</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>72549</v>
+        <v>72945</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09058177175200957</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0673005520074289</v>
+        <v>0.07008581184501099</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1170742270674988</v>
+        <v>0.1177124459800479</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>63</v>
@@ -5948,19 +5948,19 @@
         <v>63491</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48909</v>
+        <v>47407</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>80365</v>
+        <v>78413</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08611785287321333</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0663383065610772</v>
+        <v>0.06430137550484892</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1090044517129813</v>
+        <v>0.1063575567878765</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>115</v>
@@ -5969,19 +5969,19 @@
         <v>119624</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>100722</v>
+        <v>98104</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>145196</v>
+        <v>141625</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08815642416766409</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07422712621117486</v>
+        <v>0.07229728842903499</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1070017089851569</v>
+        <v>0.1043705953668858</v>
       </c>
     </row>
     <row r="32">
@@ -5998,19 +5998,19 @@
         <v>371417</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>346108</v>
+        <v>346100</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>395318</v>
+        <v>394116</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5993616629182282</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5585199827288302</v>
+        <v>0.558507594406213</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6379317144046536</v>
+        <v>0.635991604919188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>234</v>
@@ -6019,19 +6019,19 @@
         <v>251111</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>224322</v>
+        <v>226385</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>277846</v>
+        <v>276271</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3406004420067396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3042650146866613</v>
+        <v>0.3070631184222471</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3768631240503008</v>
+        <v>0.3747265457232442</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>595</v>
@@ -6040,19 +6040,19 @@
         <v>622528</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>584921</v>
+        <v>585538</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>657908</v>
+        <v>660242</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.458770868349577</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.431056521368787</v>
+        <v>0.431511160752267</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4848445777618748</v>
+        <v>0.4865644255126289</v>
       </c>
     </row>
     <row r="33">
@@ -6144,19 +6144,19 @@
         <v>32038</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22719</v>
+        <v>23274</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>44113</v>
+        <v>44631</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1127647923588935</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0799637649156173</v>
+        <v>0.0819185892261286</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1552636610135618</v>
+        <v>0.1570890414835451</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>177</v>
@@ -6165,19 +6165,19 @@
         <v>193766</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>169945</v>
+        <v>169781</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>220793</v>
+        <v>220531</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1798800670695755</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.157766708460056</v>
+        <v>0.1576141558501904</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2049708033696226</v>
+        <v>0.2047272359706154</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>208</v>
@@ -6186,19 +6186,19 @@
         <v>225804</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>200516</v>
+        <v>198233</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>258808</v>
+        <v>254906</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.165872673179648</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1472967651214418</v>
+        <v>0.1456198193176312</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.190117457323595</v>
+        <v>0.1872507122955397</v>
       </c>
     </row>
     <row r="35">
@@ -6215,19 +6215,19 @@
         <v>73031</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59538</v>
+        <v>57861</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88393</v>
+        <v>87346</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2570469237421467</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2095554504773947</v>
+        <v>0.203654404413131</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3111173425753697</v>
+        <v>0.3074338562443845</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>259</v>
@@ -6236,19 +6236,19 @@
         <v>279547</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>252467</v>
+        <v>250196</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>311165</v>
+        <v>311974</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2595143982300002</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2343744664903074</v>
+        <v>0.2322662664752599</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2888662464784443</v>
+        <v>0.2896170311113409</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>328</v>
@@ -6257,19 +6257,19 @@
         <v>352578</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>320035</v>
+        <v>322633</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>385508</v>
+        <v>385347</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2589994202728406</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2350935754368017</v>
+        <v>0.2370021576318729</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.283189372683421</v>
+        <v>0.2830712211790979</v>
       </c>
     </row>
     <row r="36">
@@ -6286,19 +6286,19 @@
         <v>51072</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>38463</v>
+        <v>39688</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65073</v>
+        <v>64965</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1797594242765382</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1353769982284698</v>
+        <v>0.1396891335927097</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2290395975826936</v>
+        <v>0.2286574523987117</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>174</v>
@@ -6307,19 +6307,19 @@
         <v>184140</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>159901</v>
+        <v>160129</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>209911</v>
+        <v>209868</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1709444170215037</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1484423411635836</v>
+        <v>0.1486538220307234</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1948683094884771</v>
+        <v>0.1948286651759523</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>223</v>
@@ -6328,19 +6328,19 @@
         <v>235212</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>208141</v>
+        <v>206824</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>264459</v>
+        <v>266011</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1727841663080277</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1528977555356215</v>
+        <v>0.1519303893985083</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1942679930582433</v>
+        <v>0.1954084889342204</v>
       </c>
     </row>
     <row r="37">
@@ -6357,19 +6357,19 @@
         <v>35231</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25003</v>
+        <v>25278</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47674</v>
+        <v>48353</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1240031147445695</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0880017343472769</v>
+        <v>0.08897112358209697</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1678002893033488</v>
+        <v>0.1701886101574685</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -6378,19 +6378,19 @@
         <v>75907</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60877</v>
+        <v>61416</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>94386</v>
+        <v>94594</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07046712354649282</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05651432451289647</v>
+        <v>0.05701489288321364</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08762231717724565</v>
+        <v>0.08781548984502631</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>104</v>
@@ -6399,19 +6399,19 @@
         <v>111138</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>91522</v>
+        <v>93138</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>131108</v>
+        <v>132832</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08164043274073798</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06723076594350957</v>
+        <v>0.06841814306758448</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09631000854445866</v>
+        <v>0.09757689376289157</v>
       </c>
     </row>
     <row r="38">
@@ -6428,19 +6428,19 @@
         <v>92742</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>78751</v>
+        <v>76170</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>109499</v>
+        <v>109704</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.326425744877852</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2771816302808651</v>
+        <v>0.268095649125443</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3854068830768115</v>
+        <v>0.3861268427354972</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>308</v>
@@ -6449,19 +6449,19 @@
         <v>343834</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>312471</v>
+        <v>314027</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>378065</v>
+        <v>377850</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3191939941324278</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2900788605080444</v>
+        <v>0.2915230741743961</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3509720828602876</v>
+        <v>0.3507721103597325</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>394</v>
@@ -6470,19 +6470,19 @@
         <v>436576</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>400717</v>
+        <v>401046</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>473401</v>
+        <v>473020</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3207033074987458</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2943619337742712</v>
+        <v>0.2946033101207093</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3477541789037988</v>
+        <v>0.3474745816768853</v>
       </c>
     </row>
     <row r="39">
@@ -6574,19 +6574,19 @@
         <v>334396</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>299391</v>
+        <v>296200</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>370818</v>
+        <v>367563</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09929935300216759</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08890446520196385</v>
+        <v>0.08795687405310612</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1101150402529991</v>
+        <v>0.1091483764742117</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>687</v>
@@ -6595,19 +6595,19 @@
         <v>737031</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>687480</v>
+        <v>690035</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>788607</v>
+        <v>787439</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2094380564039147</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1953573846763609</v>
+        <v>0.1960834880139847</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2240939920618424</v>
+        <v>0.2237621631609144</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>998</v>
@@ -6616,19 +6616,19 @@
         <v>1071427</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1016934</v>
+        <v>1007263</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1141127</v>
+        <v>1134011</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1555804601520455</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1476675602272653</v>
+        <v>0.1462632373445549</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1657015013940782</v>
+        <v>0.1646681552523907</v>
       </c>
     </row>
     <row r="41">
@@ -6645,19 +6645,19 @@
         <v>647420</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>603622</v>
+        <v>602098</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>697548</v>
+        <v>695140</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.192252191155061</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1792464256678114</v>
+        <v>0.1787938255976057</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2071378013420298</v>
+        <v>0.2064227012336784</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>867</v>
@@ -6666,19 +6666,19 @@
         <v>913157</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>857347</v>
+        <v>858568</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>961490</v>
+        <v>962871</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2594866580006341</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2436275171505286</v>
+        <v>0.2439744030084667</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2732213174451998</v>
+        <v>0.2736137806691287</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1480</v>
@@ -6687,19 +6687,19 @@
         <v>1560577</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1488962</v>
+        <v>1494351</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1633870</v>
+        <v>1632504</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.226609143941202</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.216210101920863</v>
+        <v>0.2169926398820721</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2372520530020464</v>
+        <v>0.2370535797170338</v>
       </c>
     </row>
     <row r="42">
@@ -6716,19 +6716,19 @@
         <v>531205</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>486916</v>
+        <v>492728</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>572515</v>
+        <v>575776</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1577419456309471</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1445903996713033</v>
+        <v>0.1463162906378008</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1700091006969596</v>
+        <v>0.1709773893961392</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>602</v>
@@ -6737,19 +6737,19 @@
         <v>624089</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>580302</v>
+        <v>577798</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>668206</v>
+        <v>672950</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.177343857276883</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1649011739024436</v>
+        <v>0.1641895567194844</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1898802871166122</v>
+        <v>0.1912284434227062</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1107</v>
@@ -6758,19 +6758,19 @@
         <v>1155294</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1098114</v>
+        <v>1095700</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1218142</v>
+        <v>1218118</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1677585633648895</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1594556483344472</v>
+        <v>0.1591051353337599</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1768847164687561</v>
+        <v>0.1768812677096585</v>
       </c>
     </row>
     <row r="43">
@@ -6787,19 +6787,19 @@
         <v>398024</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>358578</v>
+        <v>362295</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>435318</v>
+        <v>439624</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1181936505641143</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1064801326402846</v>
+        <v>0.1075840833831198</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1292684265847381</v>
+        <v>0.1305469698926177</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>277</v>
@@ -6808,19 +6808,19 @@
         <v>285381</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>251980</v>
+        <v>251937</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>318652</v>
+        <v>321069</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08109523615457109</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0716036212891327</v>
+        <v>0.07159161978067483</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09054967644251945</v>
+        <v>0.09123636354105163</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>653</v>
@@ -6829,19 +6829,19 @@
         <v>683405</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>635720</v>
+        <v>630848</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>737620</v>
+        <v>734762</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0992362834262608</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09231198067591616</v>
+        <v>0.09160455478947219</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1071087037571225</v>
+        <v>0.1066938354539339</v>
       </c>
     </row>
     <row r="44">
@@ -6858,19 +6858,19 @@
         <v>1456510</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1400141</v>
+        <v>1398329</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1516079</v>
+        <v>1513428</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.43251285964771</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4157737511427396</v>
+        <v>0.4152357083477571</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4502017323192206</v>
+        <v>0.4494146904530106</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>883</v>
@@ -6879,19 +6879,19 @@
         <v>959431</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>906983</v>
+        <v>908890</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1014336</v>
+        <v>1015494</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2726361921639971</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2577323951650902</v>
+        <v>0.2582742716137168</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2882381799226016</v>
+        <v>0.288567365597354</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2284</v>
@@ -6900,19 +6900,19 @@
         <v>2415942</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2337145</v>
+        <v>2338248</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2491471</v>
+        <v>2499956</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3508155491156023</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3393736399342667</v>
+        <v>0.3395337844726324</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3617830272830567</v>
+        <v>0.3630151824378072</v>
       </c>
     </row>
     <row r="45">
